--- a/Civilworks cost/Expenditure_2016_17/Input output/RPA_Statement (Contractor)(2016-17).xlsx
+++ b/Civilworks cost/Expenditure_2016_17/Input output/RPA_Statement (Contractor)(2016-17).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_24_11_2020\cmis6\cmis6\Civilworks cost\Expenditure_2016_17\Input output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\Expenditure_2016_17\Input output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -228,7 +228,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -372,9 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -495,12 +498,43 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -808,67 +842,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="87" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="87" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="56" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16" style="56" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="55" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="55" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="4" customWidth="1"/>
     <col min="14" max="15" width="11" style="4" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="4"/>
+    <col min="16" max="16" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-    </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-    </row>
-    <row r="3" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+    </row>
+    <row r="3" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -890,7 +924,7 @@
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="50" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -902,7 +936,7 @@
       <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="50" t="s">
         <v>38</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -912,7 +946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -934,7 +968,7 @@
       <c r="G4" s="12">
         <v>493556</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="51">
         <f>F4+G4</f>
         <v>1085823</v>
       </c>
@@ -948,7 +982,7 @@
       <c r="K4" s="13">
         <v>7798186</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="56">
         <f>E4-H4</f>
         <v>8785298</v>
       </c>
@@ -959,7 +993,7 @@
         <v>42792</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -981,7 +1015,7 @@
       <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="51">
         <f t="shared" ref="H5:H18" si="0">F5+G5</f>
         <v>0</v>
       </c>
@@ -990,7 +1024,7 @@
       <c r="K5" s="13">
         <v>493556</v>
       </c>
-      <c r="L5" s="57">
+      <c r="L5" s="56">
         <f t="shared" ref="L5:L18" si="1">E5-H5</f>
         <v>0</v>
       </c>
@@ -1001,7 +1035,7 @@
         <v>42814</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -1023,7 +1057,7 @@
       <c r="G6" s="12">
         <v>569154</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="51">
         <f t="shared" si="0"/>
         <v>1138308</v>
       </c>
@@ -1038,7 +1072,7 @@
         <f t="shared" ref="K6:K7" si="3">E6-J6</f>
         <v>7873295</v>
       </c>
-      <c r="L6" s="57">
+      <c r="L6" s="56">
         <f t="shared" si="1"/>
         <v>8347590</v>
       </c>
@@ -1050,7 +1084,7 @@
       </c>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -1072,7 +1106,7 @@
       <c r="G7" s="12">
         <v>898695</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="51">
         <f t="shared" si="0"/>
         <v>1797390</v>
       </c>
@@ -1087,7 +1121,7 @@
         <f t="shared" si="3"/>
         <v>12431950.83</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="56">
         <f t="shared" si="1"/>
         <v>13180863.83</v>
       </c>
@@ -1098,488 +1132,488 @@
         <v>42824</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="26" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+    <row r="8" spans="1:16" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="69">
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="72">
         <v>4947</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="73">
         <v>3000000</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="74">
         <v>180000</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="74">
         <v>180000</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="75">
         <f t="shared" si="0"/>
         <v>360000</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="74">
         <v>0</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="74">
         <f>F8+G8</f>
         <v>360000</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="74">
         <v>2640000</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="76">
         <f t="shared" si="1"/>
         <v>2640000</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="77">
         <v>4410766</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="78">
         <v>42785</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>7041</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>14259856</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <f>E9*6%</f>
         <v>855591.36</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <f>E9*7%</f>
         <v>998189.92</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="51">
         <f t="shared" si="0"/>
         <v>1853781.28</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <f>E9*5%</f>
         <v>712992.8</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <f t="shared" ref="J9:J18" si="4">F9+G9+I9</f>
         <v>2566774.08</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <v>11693082</v>
       </c>
-      <c r="L9" s="57">
+      <c r="L9" s="56">
         <f t="shared" si="1"/>
         <v>12406074.720000001</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="23">
         <v>7010124</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="24">
         <v>42848</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>7</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="18">
         <v>7081</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <v>4144654</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>248679</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>248679</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="51">
         <f t="shared" si="0"/>
         <v>497358</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>207233</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <f t="shared" si="4"/>
         <v>704591</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <f t="shared" ref="K10:K18" si="5">E10-J10</f>
         <v>3440063</v>
       </c>
-      <c r="L10" s="57">
+      <c r="L10" s="56">
         <f t="shared" si="1"/>
         <v>3647296</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="23">
         <v>7010164</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="24">
         <v>42879</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="26" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="25" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="18">
         <v>7081</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <v>9280540</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>556833</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>556832</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="52">
         <f t="shared" si="0"/>
         <v>1113665</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>464027</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <f t="shared" si="4"/>
         <v>1577692</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="22">
         <f t="shared" si="5"/>
         <v>7702848</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="57">
         <f t="shared" si="1"/>
         <v>8166875</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="23">
         <v>7010165</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="24">
         <v>42880</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="26" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="18">
         <v>7041</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <v>10328340</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>619701</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>619700</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="52">
         <f t="shared" si="0"/>
         <v>1239401</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>516417</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <f t="shared" si="4"/>
         <v>1755818</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="22">
         <f t="shared" si="5"/>
         <v>8572522</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="57">
         <f t="shared" si="1"/>
         <v>9088939</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="23">
         <v>7010170</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="24">
         <v>42883</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="18">
         <v>7041</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>4262665.3499999996</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>255759.92</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>213133.26</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="52">
         <f t="shared" si="0"/>
         <v>468893.18000000005</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>213133.26</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <f t="shared" si="4"/>
         <v>682026.44000000006</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="22">
         <f t="shared" si="5"/>
         <v>3580638.9099999997</v>
       </c>
-      <c r="L13" s="58">
+      <c r="L13" s="57">
         <f t="shared" si="1"/>
         <v>3793772.1699999995</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="23">
         <v>1930082</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="24">
         <v>42901</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32">
+    <row r="14" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
         <v>11</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <v>7041</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>12499297</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="35">
         <v>749957.83</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="35">
         <v>874950.79</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="53">
         <f t="shared" si="0"/>
         <v>1624908.62</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="35">
         <v>499971.88</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="35">
         <f t="shared" si="4"/>
         <v>2124880.5</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="35">
         <f t="shared" si="5"/>
         <v>10374416.5</v>
       </c>
-      <c r="L14" s="59">
+      <c r="L14" s="58">
         <f>K14+I14</f>
         <v>10874388.380000001</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="36">
         <v>1930085</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="37">
         <v>42904</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>12</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="18">
         <v>7041</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>2555298.56</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>153317.91</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>178870.89</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="52">
         <f t="shared" si="0"/>
         <v>332188.80000000005</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>127764.92</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <f t="shared" si="4"/>
         <v>459953.72000000003</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="22">
         <f t="shared" si="5"/>
         <v>2095344.84</v>
       </c>
-      <c r="L15" s="58">
+      <c r="L15" s="57">
         <f t="shared" si="1"/>
         <v>2223109.7599999998</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="23">
         <v>1930087</v>
       </c>
-      <c r="N15" s="40">
+      <c r="N15" s="39">
         <v>42905</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
+    <row r="16" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
         <v>13</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <v>7041</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="34">
         <v>967951</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="35">
         <v>58077</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="35">
         <v>58077</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="53">
         <f t="shared" si="0"/>
         <v>116154</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="35">
         <v>48398</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="35">
         <f t="shared" si="4"/>
         <v>164552</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="35">
         <f t="shared" si="5"/>
         <v>803399</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="58">
         <f t="shared" si="1"/>
         <v>851797</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="36">
         <v>1930091</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="37">
         <v>42906</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>14</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="18">
         <v>7081</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>5287458</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>317247</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>317248</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="52">
         <f t="shared" si="0"/>
         <v>634495</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>264373</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <f t="shared" si="4"/>
         <v>898868</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="22">
         <f t="shared" si="5"/>
         <v>4388590</v>
       </c>
-      <c r="L17" s="58">
+      <c r="L17" s="57">
         <f t="shared" si="1"/>
         <v>4652963</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="23">
         <v>1930095</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="24">
         <v>42907</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="26" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -1592,296 +1626,298 @@
       <c r="D18" s="18">
         <v>4947</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <v>2969931</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>178196</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>178196</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="52">
         <f t="shared" si="0"/>
         <v>356392</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>596993</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <f t="shared" si="4"/>
         <v>953385</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="22">
         <f t="shared" si="5"/>
         <v>2016546</v>
       </c>
-      <c r="L18" s="58">
+      <c r="L18" s="57">
         <f t="shared" si="1"/>
         <v>2613539</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="23">
         <v>1930096</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="24">
         <v>42907</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43">
+      <c r="D19" s="41"/>
+      <c r="E19" s="42">
         <f t="shared" ref="E19:L19" si="6">SUM(E4:E18)</f>
         <v>103891263.73999999</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="42">
         <f t="shared" si="6"/>
         <v>6233476.0199999996</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="42">
         <f t="shared" si="6"/>
         <v>6385281.8599999994</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="54">
         <f t="shared" si="6"/>
         <v>12618757.880000003</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="42">
         <f t="shared" si="6"/>
         <v>5368067.8599999994</v>
       </c>
-      <c r="J19" s="43">
+      <c r="J19" s="42">
         <f t="shared" si="6"/>
         <v>17986825.740000002</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="42">
         <f t="shared" si="6"/>
         <v>85904438.079999998</v>
       </c>
-      <c r="L19" s="55">
+      <c r="L19" s="54">
         <f t="shared" si="6"/>
         <v>91272505.859999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" s="3"/>
       <c r="E20" s="3"/>
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
+      <c r="L20" s="81"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:14" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="60" t="s">
+      <c r="J21" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="60" t="s">
+      <c r="K21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="44"/>
-    </row>
-    <row r="22" spans="1:14" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="46"/>
+      <c r="M21" s="43"/>
+    </row>
+    <row r="22" spans="1:14" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="13">
         <f>F19</f>
         <v>6233476.0199999996</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="I22" s="62" t="s">
+      <c r="D22" s="45"/>
+      <c r="I22" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="61">
         <v>4048579.18</v>
       </c>
-      <c r="K22" s="63">
+      <c r="K22" s="62">
         <v>30867396.170000002</v>
       </c>
-      <c r="L22" s="47"/>
-    </row>
-    <row r="23" spans="1:14" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" spans="1:14" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="13">
         <f>G19</f>
         <v>6385281.8599999994</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="62" t="s">
+      <c r="D23" s="45"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="63">
+      <c r="J23" s="62">
         <v>3810878.7</v>
       </c>
-      <c r="K23" s="63">
+      <c r="K23" s="62">
         <v>25503572.859999999</v>
       </c>
-      <c r="L23" s="47"/>
-    </row>
-    <row r="24" spans="1:14" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" spans="1:14" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="47">
         <f>SUM(C22:C23)</f>
         <v>12618757.879999999</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="47"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="68" t="s">
+      <c r="D24" s="48"/>
+      <c r="E24" s="46"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="68">
+      <c r="J24" s="67">
         <v>4042908</v>
       </c>
-      <c r="K24" s="68">
+      <c r="K24" s="67">
         <v>29647997.829999998</v>
       </c>
-      <c r="L24" s="47"/>
-    </row>
-    <row r="25" spans="1:14" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" spans="1:14" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="47">
         <f>E19</f>
         <v>103891263.73999999</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="F25" s="47"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="64" t="s">
+      <c r="D25" s="48"/>
+      <c r="F25" s="46"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="64">
+      <c r="J25" s="63">
         <f>SUM(J22:J24)</f>
         <v>11902365.880000001</v>
       </c>
-      <c r="K25" s="65">
+      <c r="K25" s="64">
         <f>SUM(K22:K24)</f>
         <v>86018966.859999999</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="2">
         <f>C25-C24</f>
         <v>91272505.859999999</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="47">
+      <c r="D26" s="49"/>
+      <c r="E26" s="46">
         <f>E18+E8</f>
         <v>5969931</v>
       </c>
-      <c r="I26" s="63" t="s">
+      <c r="I26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="69">
+      <c r="J26" s="68">
         <v>716392</v>
       </c>
-      <c r="K26" s="63">
+      <c r="K26" s="62">
         <v>5253539</v>
       </c>
-      <c r="L26" s="47"/>
-    </row>
-    <row r="27" spans="1:14" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="I27" s="27" t="s">
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="I27" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="66">
+      <c r="J27" s="65">
         <f>J25+J26</f>
         <v>12618757.880000001</v>
       </c>
-      <c r="K27" s="67">
+      <c r="K27" s="66">
         <f>K25+K26</f>
         <v>91272505.859999999</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="C28" s="50"/>
-      <c r="E28" s="47"/>
-    </row>
-    <row r="29" spans="1:14" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="49"/>
+      <c r="E28" s="46"/>
+    </row>
+    <row r="29" spans="1:14" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:8" s="26" customFormat="1" ht="285" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="25" customFormat="1" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H46" s="4"/>
     </row>
   </sheetData>

--- a/Civilworks cost/Expenditure_2016_17/Input output/RPA_Statement (Contractor)(2016-17).xlsx
+++ b/Civilworks cost/Expenditure_2016_17/Input output/RPA_Statement (Contractor)(2016-17).xlsx
@@ -528,13 +528,13 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -842,15 +842,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="87" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="87" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="45" style="4" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="4" customWidth="1"/>
@@ -860,47 +860,48 @@
     <col min="10" max="10" width="17.7109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" style="4" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" style="55" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="4" customWidth="1"/>
-    <col min="14" max="15" width="11" style="4" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11" style="4" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
     </row>
     <row r="3" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1132,7 +1133,7 @@
         <v>42824</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="25" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="69">
         <v>5</v>
       </c>
@@ -1707,7 +1708,9 @@
       <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="81"/>
+      <c r="L20" s="79">
+        <v>91272505.879999995</v>
+      </c>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:14" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
